--- a/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,31 +22,40 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>290004</t>
+  </si>
+  <si>
     <t>003446</t>
   </si>
   <si>
     <t>003447</t>
   </si>
   <si>
-    <t>290004</t>
-  </si>
-  <si>
     <t>001607</t>
   </si>
   <si>
+    <t>002938</t>
+  </si>
+  <si>
     <t>001608</t>
   </si>
   <si>
-    <t>002938</t>
+    <t>泰信优质生活混合</t>
   </si>
   <si>
     <t>英大睿鑫灵活配置混合A</t>
@@ -55,40 +64,73 @@
     <t>英大睿鑫灵活配置混合C</t>
   </si>
   <si>
-    <t>泰信优质生活混合</t>
-  </si>
-  <si>
     <t>英大策略优选混合A</t>
   </si>
   <si>
+    <t>中银证券健康产业灵活配置混合</t>
+  </si>
+  <si>
     <t>英大策略优选混合C</t>
   </si>
   <si>
-    <t>中银证券健康产业灵活配置混合</t>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>87.44</t>
   </si>
   <si>
     <t>88.53</t>
   </si>
   <si>
-    <t>87.44</t>
-  </si>
-  <si>
     <t>89.02</t>
   </si>
   <si>
     <t>90.75</t>
   </si>
   <si>
+    <t>4.71</t>
+  </si>
+  <si>
     <t>5.91</t>
   </si>
   <si>
-    <t>4.71</t>
-  </si>
-  <si>
     <t>4.00</t>
   </si>
   <si>
     <t>4.33</t>
+  </si>
+  <si>
+    <t>0.2110</t>
+  </si>
+  <si>
+    <t>0.0437</t>
+  </si>
+  <si>
+    <t>0.0431</t>
+  </si>
+  <si>
+    <t>0.0324</t>
+  </si>
+  <si>
+    <t>0.0238</t>
+  </si>
+  <si>
+    <t>0.0020</t>
   </si>
 </sst>
 </file>
@@ -446,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,125 +510,167 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,4 +2057,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.95</v>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2128,13 +2193,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
+++ b/数据整理/stocks/A股/上证主板/603538-美诺华.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2516,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2554,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.95</v>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2505,13 +2592,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.36</v>
       </c>
     </row>
